--- a/VersionRecords/Version 5.1.8.2 20161218/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 5.1.8.2 20161218/定时器/新增定时器 (EQ组).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>项目组</t>
   </si>
@@ -148,6 +148,34 @@
   </si>
   <si>
     <t>每隔30分钟执行一次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理线上价格错误数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不启用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomPriceNewTask</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPriceNewTask</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"roomIds":"22796,22797","startTime":"20161215111200","endTime":"20161215181200","taskImpl":"com.mogoroom.tasktracker.task.RoomPriceNewTask"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要时执行</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -740,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,6 +905,60 @@
       </c>
       <c r="R2" s="7"/>
     </row>
+    <row r="3" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
